--- a/Data/aearep-335/candidatepackages.xlsx
+++ b/Data/aearep-335/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -43,12 +43,12 @@
     <t>white</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>dag</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
@@ -58,12 +58,12 @@
     <t>pre</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>next</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>mail</t>
   </si>
   <si>
@@ -79,9 +79,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-335</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-335/code_data_final/programs</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>alternative_radii.do</t>
@@ -253,7 +247,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -265,7 +259,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -277,7 +271,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -289,10 +283,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C7">
-        <v>0.11803713440895081</v>
+        <v>0</v>
       </c>
       <c r="D7"/>
     </row>
@@ -301,10 +295,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C8">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D8"/>
     </row>
@@ -313,10 +307,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C9">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D9"/>
     </row>
@@ -325,10 +319,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1030</v>
+        <v>955</v>
       </c>
       <c r="C10">
-        <v>0.34151193499565125</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D10"/>
     </row>
@@ -337,10 +331,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1133</v>
+        <v>1068</v>
       </c>
       <c r="C11">
-        <v>0.37566313147544861</v>
+        <v>0.353057861328125</v>
       </c>
       <c r="D11"/>
     </row>
@@ -349,10 +343,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1194</v>
+        <v>1125</v>
       </c>
       <c r="C12">
-        <v>0.39588859677314758</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D12"/>
     </row>
@@ -361,10 +355,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1472</v>
+        <v>1306</v>
       </c>
       <c r="C13">
-        <v>0.48806366324424744</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D13"/>
     </row>
@@ -373,10 +367,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C14">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D14"/>
     </row>
@@ -385,10 +379,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1798</v>
+        <v>1658</v>
       </c>
       <c r="C15">
-        <v>0.5961538553237915</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D15"/>
     </row>
@@ -397,10 +391,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1859</v>
+        <v>1880</v>
       </c>
       <c r="C16">
-        <v>0.61637932062149048</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D16"/>
     </row>
@@ -409,10 +403,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2239</v>
+        <v>2074</v>
       </c>
       <c r="C17">
-        <v>0.7423740029335022</v>
+        <v>0.68561983108520508</v>
       </c>
       <c r="D17"/>
     </row>
@@ -422,7 +416,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -430,7 +424,7 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -438,159 +432,159 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -598,39 +592,31 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
